--- a/Doc/关卡资源表.xlsx
+++ b/Doc/关卡资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29020" yWindow="-2280" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FPP资源表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>类别</t>
   </si>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>被吸入口吸入的miu会消失，吸入口可以被气泡miu堵住</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -459,6 +471,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -507,13 +528,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>991805</xdr:rowOff>
@@ -545,13 +566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>2235200</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>360926</xdr:rowOff>
@@ -583,13 +604,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>191700</xdr:rowOff>
@@ -621,13 +642,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3037840</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>399387</xdr:rowOff>
@@ -659,13 +680,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1849120</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>496431</xdr:rowOff>
@@ -697,13 +718,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>2580640</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>344077</xdr:rowOff>
@@ -1058,425 +1079,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="33" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="23" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="23" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="4" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="8" t="s">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="80" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="80" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="46" customHeight="1">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:6" ht="46" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:6" ht="32" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" customHeight="1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:6" ht="34" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="60" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:6" ht="60" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="41" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:6" ht="41" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="41" customHeight="1">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:6" ht="41" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="41" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10" t="s">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="41" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:6" ht="41" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:6" ht="41" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="9" t="s">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="42" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="42" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="29" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="4" t="s">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="29" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="11"/>
-      <c r="B30" s="4" t="s">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="9"/>
-      <c r="B32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="9"/>
+      <c r="C32" s="4"/>
       <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A14"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B22:B25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
